--- a/data/algotest.xlsx
+++ b/data/algotest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BDB626-07D4-354B-B195-96DCE73AA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CAC20B-80B7-8542-BFFF-1A53F22439AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="900" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -200,6 +200,25 @@
   </si>
   <si>
     <t>https://github.com/SteveJe0ngs/Kyokea</t>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테스트에요~ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람. 다람람!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qgzep8Oq140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">테스트 설명입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,13 +580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
@@ -578,7 +597,7 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,106 +625,121 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -714,24 +748,24 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -740,76 +774,76 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -818,47 +852,33 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/algotest.xlsx
+++ b/data/algotest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CAC20B-80B7-8542-BFFF-1A53F22439AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0490E9A0-195B-D44D-9DF2-92E114D6DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="900" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>id</t>
   </si>
@@ -218,6 +218,25 @@
   </si>
   <si>
     <t xml:space="preserve">테스트 설명입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finaltest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ludia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P0LiiXaY3AA</t>
+  </si>
+  <si>
+    <t>This is final test.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -878,6 +897,29 @@
         <v>61</v>
       </c>
     </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/algotest.xlsx
+++ b/data/algotest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0490E9A0-195B-D44D-9DF2-92E114D6DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A83870-D1BB-5B46-8BE1-C68EF0A686AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="900" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -238,6 +238,9 @@
   <si>
     <t>This is final test.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vdnuit.github.io/the-cookie-i-buy/</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EDDD3-CA1E-4C3A-932E-9F52FDB48B51}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -865,7 +868,7 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>

--- a/data/algotest.xlsx
+++ b/data/algotest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A83870-D1BB-5B46-8BE1-C68EF0A686AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95080C75-E7D2-4048-B61E-B629326B5C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="900" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>https://vdnuit.github.io/the-cookie-i-buy/</t>
+  </si>
+  <si>
+    <t>https://github.com/its-a-workout/its-a-workout</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -689,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>

--- a/data/algotest.xlsx
+++ b/data/algotest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daram/Documents/GitHub/Comedunion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95080C75-E7D2-4048-B61E-B629326B5C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A83870-D1BB-5B46-8BE1-C68EF0A686AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="900" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>https://vdnuit.github.io/the-cookie-i-buy/</t>
-  </si>
-  <si>
-    <t>https://github.com/its-a-workout/its-a-workout</t>
   </si>
 </sst>
 </file>
@@ -606,7 +603,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -692,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
